--- a/Studies/CAMspiracy/t1_segmentation_German/static/Scale Bruder et al., 2013/items Bruder 2013.xlsx
+++ b/Studies/CAMspiracy/t1_segmentation_German/static/Scale Bruder et al., 2013/items Bruder 2013.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\labjsSoftware\article - CAMspiracy\t1_segmentation\static\Scale Bruder et al., 2013\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\labjsSoftware\livmats studies\Studies\CAMspiracy\t1_segmentation_German\static\Scale Bruder et al., 2013\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{550409BB-CD63-47F7-8199-1BD70DDE47EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{57DE7FA3-3683-4DC9-81C0-FC5BDC44C1D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Julius Fenn - Persönliche Ansicht" guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="2576" windowHeight="1416" activeSheetId="1"/>
+    <customWorkbookView name="Julius Fenn - Persönliche Ansicht" guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="Philipp Höfele - Persönliche Ansicht" guid="{47B4CD57-5B2E-4389-ABE6-89250A82D1C8}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="Microsoft Office-Anwender - Persönliche Ansicht" guid="{890A2A41-DF1E-FA42-8D9E-8E3DE3754670}" mergeInterval="0" personalView="1" windowWidth="1365" windowHeight="704" activeSheetId="1"/>
-    <customWorkbookView name="Philipp Höfele - Persönliche Ansicht" guid="{47B4CD57-5B2E-4389-ABE6-89250A82D1C8}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -44,21 +44,6 @@
     <t>Question</t>
   </si>
   <si>
-    <t>. . . many very important things happen in the world, which the public is never informed about.</t>
-  </si>
-  <si>
-    <t>. . . politicians usually do not tell us the true motives for their decisions.</t>
-  </si>
-  <si>
-    <t>. . . government agencies closely monitor all citizens.</t>
-  </si>
-  <si>
-    <t>. . . events which superficially seem to lack a connection are often the result of secret activities.</t>
-  </si>
-  <si>
-    <t>. . . there are secret organizations that greatly influence political decisions.</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -72,6 +57,21 @@
   </si>
   <si>
     <t>05</t>
+  </si>
+  <si>
+    <t>. . . es geschehen viele sehr wichtige Dinge in der Welt, über die die Öffentlichkeit nie informiert wird.</t>
+  </si>
+  <si>
+    <t>. . . Politiker geben uns normalerweise keine Auskunft über die wahren Motive ihrer Entscheidungen.</t>
+  </si>
+  <si>
+    <t>. . . Regierungsbehörden überwachen alle Bürger genau.</t>
+  </si>
+  <si>
+    <t>. . . Ereignisse, die auf den ersten Blick nicht miteinander in Verbindung zu stehen scheinen, sind oft das Ergebnis geheimer Aktivitäten.</t>
+  </si>
+  <si>
+    <t>. . . es gibt geheime Organisationen, die großen Einfluss auf politische Entscheidungen haben.</t>
   </si>
 </sst>
 </file>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{561D17CE-4E10-41C7-983F-908D039641C2}" diskRevisions="1" revisionId="797" version="30">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4D741301-4835-417F-8DCE-9BB9BF52EAD1}" diskRevisions="1" revisionId="802" version="31">
   <header guid="{09193A18-0B52-4FAB-B338-B4D967DC2D75}" dateTime="2022-09-29T13:56:20" maxSheetId="2" userName="Julius Fenn" r:id="rId23" minRId="265" maxRId="270">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -193,6 +193,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{4D741301-4835-417F-8DCE-9BB9BF52EAD1}" dateTime="2023-11-25T17:55:57" maxSheetId="2" userName="Julius Fenn" r:id="rId34" minRId="798" maxRId="802">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -11204,6 +11209,93 @@
       </dxf>
     </rfmt>
   </rrc>
+  <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="delete"/>
+  <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="798" sId="1" odxf="1" dxf="1">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>. . . many very important things happen in the world, which the public is never informed about.</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>. . . es geschehen viele sehr wichtige Dinge in der Welt, über die die Öffentlichkeit nie informiert wird.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="799" sId="1" odxf="1" dxf="1">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>. . . politicians usually do not tell us the true motives for their decisions.</t>
+      </is>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>. . . Politiker geben uns normalerweise keine Auskunft über die wahren Motive ihrer Entscheidungen.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="800" sId="1" odxf="1" dxf="1">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <t>. . . government agencies closely monitor all citizens.</t>
+      </is>
+    </oc>
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>. . . Regierungsbehörden überwachen alle Bürger genau.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="801" sId="1" odxf="1" dxf="1">
+    <oc r="B5" t="inlineStr">
+      <is>
+        <t>. . . events which superficially seem to lack a connection are often the result of secret activities.</t>
+      </is>
+    </oc>
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>. . . Ereignisse, die auf den ersten Blick nicht miteinander in Verbindung zu stehen scheinen, sind oft das Ergebnis geheimer Aktivitäten.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="802" sId="1" odxf="1" dxf="1">
+    <oc r="B6" t="inlineStr">
+      <is>
+        <t>. . . there are secret organizations that greatly influence political decisions.</t>
+      </is>
+    </oc>
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>. . . es gibt geheime Organisationen, die großen Einfluss auf politische Entscheidungen haben.</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
   <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="delete"/>
   <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="add"/>
 </revisions>
@@ -11484,7 +11576,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11504,58 +11596,58 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" scale="145" showPageBreaks="1" fitToPage="1">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E5" sqref="E5"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{890A2A41-DF1E-FA42-8D9E-8E3DE3754670}" scale="133" topLeftCell="A10">
-      <selection activeCell="E18" sqref="E18"/>
+    <customSheetView guid="{47B4CD57-5B2E-4389-ABE6-89250A82D1C8}" scale="90" topLeftCell="B40">
+      <selection activeCell="F45" sqref="F45"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{47B4CD57-5B2E-4389-ABE6-89250A82D1C8}" scale="90" topLeftCell="B40">
-      <selection activeCell="F45" sqref="F45"/>
+    <customSheetView guid="{890A2A41-DF1E-FA42-8D9E-8E3DE3754670}" scale="133" topLeftCell="A10">
+      <selection activeCell="E18" sqref="E18"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
